--- a/Resources/state_tax_gambling.xlsx
+++ b/Resources/state_tax_gambling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8af7e8536f9e44ec/Desktop/Project 3 Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8efe91f6cd82ada5/Desktop/P3/Project-3-Sports-Betting-Analysis/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1147123-AC05-482D-9B27-CC24F4B50979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{E1147123-AC05-482D-9B27-CC24F4B50979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45C78A11-9316-4210-A22A-B5DC46780E94}"/>
   <bookViews>
-    <workbookView xWindow="45960" yWindow="4095" windowWidth="22980" windowHeight="10710" xr2:uid="{9A64B375-AA46-4D3C-A816-A6BB6BA06E43}"/>
+    <workbookView xWindow="-27240" yWindow="-75" windowWidth="11685" windowHeight="12405" xr2:uid="{9A64B375-AA46-4D3C-A816-A6BB6BA06E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Which states require payment of" sheetId="2" r:id="rId1"/>
@@ -248,9 +248,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -292,6 +291,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE6D546C-89D2-43D9-9E10-3B679102FDFD}" name="Which_states_require_payment_of_state_taxes_on_gambling_winnings" displayName="Which_states_require_payment_of_state_taxes_on_gambling_winnings" ref="A1:B52" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B52" xr:uid="{DE6D546C-89D2-43D9-9E10-3B679102FDFD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B52">
+    <sortCondition ref="A1:A52"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3F4B9F9D-4D12-4B68-A994-08DADECDF95D}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{F762993C-5CE9-4EBB-AF0A-667565ECF918}" uniqueName="2" name="State tax on gambling income?" queryTableFieldId="2" dataDxfId="0"/>
@@ -599,17 +601,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB46863-9834-441F-AAAE-5D555315773F}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,411 +619,411 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" s="1" t="s">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" s="1" t="s">
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" s="1" t="s">
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1039,7 +1041,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
